--- a/제품별 수요(트렌드) 예측/Readme.xlsx
+++ b/제품별 수요(트렌드) 예측/Readme.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5693B449-875D-41FF-95BE-296B63296F4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D879FE-4153-4798-A8FF-E73B70EE2986}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="시나리오 1.1. 시계열 딥러닝(LSTM)" sheetId="1" r:id="rId1"/>
-    <sheet name="시나리오 1.2. 시계열 딥러닝(multi_LSTM)" sheetId="8" r:id="rId2"/>
+    <sheet name="시나리오 1. 시계열 분석" sheetId="9" r:id="rId1"/>
+    <sheet name="시나리오 2.1. 시계열 딥러닝(LSTM)" sheetId="1" r:id="rId2"/>
+    <sheet name="시나리오 2.2. 시계열 딥러닝(multi_LSTM)" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="98">
   <si>
     <t>condition_col_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,20 +265,146 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.1. 시계열 딥러닝(LSTM)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2. 시계열 딥러닝(multi_LSTM)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Input(x)는 기존아이템 속성, QTY의 과거 값
 Output(y)는 아이템 속성에 따른 QTY의 미래 예측 값 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>모델 설정 옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 시계열 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 ~ 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAESANG_DATA_prepared.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_시계열모델_데이터유형.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_KEY, DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_시계열모델_조건설정값.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_시계열모델_설정옵션.csv</t>
+  </si>
+  <si>
+    <t>Arima 모델 설정 옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date_col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시계열 데이터 컬럼명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd-mm-yyyy, mm-yyyy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측 값 컬럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>예측 주기 (예: 12 (1년), 4(분기), 7(일별))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12, 4, 7 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_시계열모델_결과.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 통계 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델버젼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석모델이름 및 파라미터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델명_실행날짜_실행시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0 ~ cn 컬럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계분석결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intercept, coef, std err, P-value, etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_시계열모델_정보.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용된 모델 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run time, 관측지 개수, 종족변수이름, etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_시계열모델_예측결과.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 데이터 컬럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측값 y 포함한 전체 데이터 컬럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래 예측 값 및 독립변수들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1. 시계열 딥러닝(LSTM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2. 시계열 딥러닝(multi_LSTM)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -422,6 +549,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -430,8 +560,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -771,11 +901,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC05FAC-3786-4B30-B2D3-48A987E692D1}">
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -806,15 +936,606 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="8"/>
+      <c r="B3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="E17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="E22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="E25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C34" s="25"/>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C36" s="25"/>
+      <c r="E36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B38" s="25"/>
+      <c r="C38" s="4"/>
+      <c r="F38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="D52" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E53" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E54" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E57" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E58" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E66" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D69" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F17:H17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K55"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" customWidth="1"/>
+    <col min="4" max="4" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
@@ -849,11 +1570,11 @@
       <c r="E6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F7" t="s">
@@ -910,10 +1631,10 @@
       <c r="E13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F14" t="s">
@@ -948,7 +1669,7 @@
         <v>52</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
@@ -1190,10 +1911,10 @@
       <c r="E44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="22"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F45" t="s">
@@ -1214,8 +1935,8 @@
       <c r="E48" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="24" t="s">
-        <v>65</v>
+      <c r="F48" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="H48" s="14"/>
     </row>
@@ -1301,12 +2022,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1342,17 +2063,17 @@
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B2" s="20">
         <v>12</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
@@ -1391,11 +2112,11 @@
       <c r="E6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7"/>
@@ -1464,10 +2185,10 @@
       <c r="E13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14"/>
@@ -1506,8 +2227,8 @@
       <c r="E17" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>65</v>
+      <c r="F17" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
@@ -1781,10 +2502,10 @@
       <c r="E44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="22"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45"/>
@@ -1811,8 +2532,8 @@
       <c r="E48" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="24" t="s">
-        <v>65</v>
+      <c r="F48" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="H48" s="14"/>
     </row>

--- a/제품별 수요(트렌드) 예측/Readme.xlsx
+++ b/제품별 수요(트렌드) 예측/Readme.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D879FE-4153-4798-A8FF-E73B70EE2986}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21900" windowHeight="7872"/>
   </bookViews>
   <sheets>
-    <sheet name="시나리오 1. 시계열 분석" sheetId="9" r:id="rId1"/>
+    <sheet name="시나리오 1. 시계열 (Auto_Arima)" sheetId="9" r:id="rId1"/>
     <sheet name="시나리오 2.1. 시계열 딥러닝(LSTM)" sheetId="1" r:id="rId2"/>
     <sheet name="시나리오 2.2. 시계열 딥러닝(multi_LSTM)" sheetId="8" r:id="rId3"/>
   </sheets>
@@ -411,7 +410,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -551,6 +550,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -559,9 +561,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -657,23 +656,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -709,23 +691,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -901,10 +866,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC05FAC-3786-4B30-B2D3-48A987E692D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
@@ -941,10 +906,10 @@
       <c r="B2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
@@ -966,8 +931,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="4" t="s">
         <v>66</v>
       </c>
@@ -979,11 +944,11 @@
       <c r="E6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F7" t="s">
@@ -1040,10 +1005,10 @@
       <c r="E13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="23"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F14" t="s">
@@ -1073,11 +1038,11 @@
       <c r="E17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F18" t="s">
@@ -1231,7 +1196,7 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C34" s="25"/>
+      <c r="C34" s="22"/>
       <c r="E34" t="s">
         <v>36</v>
       </c>
@@ -1252,7 +1217,7 @@
       <c r="E35"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C36" s="25"/>
+      <c r="C36" s="22"/>
       <c r="E36" s="4" t="s">
         <v>81</v>
       </c>
@@ -1266,7 +1231,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="25"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="4"/>
       <c r="F38" t="s">
         <v>86</v>
@@ -1492,7 +1457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -1532,10 +1497,10 @@
       <c r="B2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
@@ -1570,11 +1535,11 @@
       <c r="E6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F7" t="s">
@@ -1631,10 +1596,10 @@
       <c r="E13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="23"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F14" t="s">
@@ -1911,10 +1876,10 @@
       <c r="E44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="23"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F45" t="s">
@@ -2015,7 +1980,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" tooltip="daesang.csv" display="https://github.com/KstecGit2021/APS_alpha/blob/main/%EC%8B%9C%EA%B3%84%EC%97%B4_%EB%94%A5%EB%9F%AC%EB%8B%9D(LSTM)/daesang.csv" xr:uid="{4613604C-2ED3-4FC7-9ABC-6958C767A3EF}"/>
+    <hyperlink ref="E5" r:id="rId1" tooltip="daesang.csv" display="https://github.com/KstecGit2021/APS_alpha/blob/main/%EC%8B%9C%EA%B3%84%EC%97%B4_%EB%94%A5%EB%9F%AC%EB%8B%9D(LSTM)/daesang.csv"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
@@ -2023,10 +1988,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2068,12 +2033,12 @@
       <c r="B2" s="20">
         <v>12</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
@@ -2112,11 +2077,11 @@
       <c r="E6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7"/>
@@ -2185,10 +2150,10 @@
       <c r="E13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="23"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14"/>
@@ -2502,10 +2467,10 @@
       <c r="E44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="23"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45"/>
@@ -2621,7 +2586,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" tooltip="daesang.csv" display="https://github.com/KstecGit2021/APS_alpha/blob/main/%EC%8B%9C%EA%B3%84%EC%97%B4_%EB%94%A5%EB%9F%AC%EB%8B%9D(LSTM)/daesang.csv" xr:uid="{F988CA23-78D4-4FEC-8A77-3473E11E7E51}"/>
+    <hyperlink ref="E5" r:id="rId1" tooltip="daesang.csv" display="https://github.com/KstecGit2021/APS_alpha/blob/main/%EC%8B%9C%EA%B3%84%EC%97%B4_%EB%94%A5%EB%9F%AC%EB%8B%9D(LSTM)/daesang.csv"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/제품별 수요(트렌드) 예측/Readme.xlsx
+++ b/제품별 수요(트렌드) 예측/Readme.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7577DDBF-78C2-48C0-B5F1-DC5F7B0F24CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21900" windowHeight="7872"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시나리오 1. 시계열 (Auto_Arima)" sheetId="9" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="99">
   <si>
     <t>condition_col_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 ~ 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">모델 이름 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5 ~ 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DAESANG_DATA_prepared.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,13 +397,28 @@
   </si>
   <si>
     <t>2.2. 시계열 딥러닝(multi_LSTM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEASANG_ 시계열(Auto_Arima).ipynb
+cell. 5 ~ 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daesang_시계열딥러닝.ipynb
+cell. 1 ~ 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daesang_시계열딥러닝.ipynb
+cell. 12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -544,9 +552,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -557,9 +562,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -656,6 +670,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -691,6 +722,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -866,17 +914,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" customWidth="1"/>
+    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.59765625" customWidth="1"/>
     <col min="4" max="4" width="25.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.296875" style="4" bestFit="1" customWidth="1"/>
@@ -901,10 +949,10 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>35</v>
@@ -931,10 +979,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -942,7 +990,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E6" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>16</v>
@@ -966,7 +1014,7 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -988,7 +1036,7 @@
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1003,7 +1051,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E13" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>15</v>
@@ -1036,42 +1084,42 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E17" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
         <v>73</v>
-      </c>
-      <c r="G18" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s">
         <v>78</v>
-      </c>
-      <c r="G20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
@@ -1084,37 +1132,37 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E22" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" t="s">
         <v>83</v>
-      </c>
-      <c r="G23" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" t="s">
         <v>86</v>
-      </c>
-      <c r="G24" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E25" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
@@ -1122,24 +1170,24 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" t="s">
         <v>83</v>
-      </c>
-      <c r="G26" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
@@ -1147,7 +1195,7 @@
         <v>28</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
@@ -1155,24 +1203,24 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" t="s">
         <v>83</v>
-      </c>
-      <c r="G29" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" t="s">
         <v>93</v>
-      </c>
-      <c r="G30" t="s">
-        <v>94</v>
-      </c>
-      <c r="H30" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="31" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1196,7 +1244,7 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C34" s="22"/>
+      <c r="C34" s="21"/>
       <c r="E34" t="s">
         <v>36</v>
       </c>
@@ -1217,29 +1265,29 @@
       <c r="E35"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C36" s="22"/>
+      <c r="C36" s="21"/>
       <c r="E36" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="22"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="4"/>
       <c r="F38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="E39" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
@@ -1247,12 +1295,12 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -1260,7 +1308,7 @@
         <v>28</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
@@ -1268,12 +1316,12 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.4">
@@ -1296,7 +1344,7 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="E47" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
@@ -1334,7 +1382,7 @@
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E54" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F54" t="s">
         <v>15</v>
@@ -1357,25 +1405,25 @@
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E58" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.4">
       <c r="F59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.4">
       <c r="F60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.4">
       <c r="F61" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.4">
@@ -1388,25 +1436,25 @@
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E63" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.4">
       <c r="F64" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.4">
       <c r="F65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E66" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F66" t="s">
         <v>18</v>
@@ -1414,12 +1462,12 @@
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.4">
       <c r="F67" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.4">
       <c r="F68" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.4">
@@ -1427,7 +1475,7 @@
         <v>28</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
@@ -1435,12 +1483,12 @@
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.4">
       <c r="F70" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.4">
       <c r="F71" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1457,17 +1505,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" customWidth="1"/>
+    <col min="2" max="2" width="28.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.59765625" customWidth="1"/>
     <col min="4" max="4" width="25.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.296875" style="4" bestFit="1" customWidth="1"/>
@@ -1492,10 +1540,10 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>94</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>97</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>35</v>
@@ -1525,7 +1573,7 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1533,7 +1581,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>16</v>
@@ -1594,7 +1642,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>15</v>
@@ -1631,10 +1679,10 @@
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
@@ -1648,7 +1696,7 @@
         <v>43</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -1667,7 +1715,7 @@
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>45</v>
@@ -1696,7 +1744,7 @@
         <v>28</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>19</v>
@@ -1709,18 +1757,18 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
         <v>57</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>58</v>
-      </c>
-      <c r="H24" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1769,7 +1817,7 @@
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>45</v>
@@ -1796,7 +1844,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>19</v>
@@ -1811,7 +1859,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
@@ -1834,7 +1882,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E37" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>16</v>
@@ -1874,7 +1922,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E44" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F44" s="24" t="s">
         <v>15</v>
@@ -1898,10 +1946,10 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E48" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>63</v>
+        <v>51</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="H48" s="14"/>
     </row>
@@ -1926,7 +1974,7 @@
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>45</v>
@@ -1953,7 +2001,7 @@
         <v>28</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F53" s="14" t="s">
         <v>19</v>
@@ -1968,7 +2016,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1980,7 +2028,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" tooltip="daesang.csv" display="https://github.com/KstecGit2021/APS_alpha/blob/main/%EC%8B%9C%EA%B3%84%EC%97%B4_%EB%94%A5%EB%9F%AC%EB%8B%9D(LSTM)/daesang.csv"/>
+    <hyperlink ref="E5" r:id="rId1" tooltip="daesang.csv" display="https://github.com/KstecGit2021/APS_alpha/blob/main/%EC%8B%9C%EA%B3%84%EC%97%B4_%EB%94%A5%EB%9F%AC%EB%8B%9D(LSTM)/daesang.csv" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
@@ -1988,11 +2036,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2028,13 +2076,13 @@
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="20">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="25"/>
@@ -2066,7 +2114,7 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -2075,7 +2123,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6"/>
       <c r="E6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>16</v>
@@ -2148,7 +2196,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13"/>
       <c r="E13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>15</v>
@@ -2190,10 +2238,10 @@
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>63</v>
+        <v>51</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
@@ -2207,7 +2255,7 @@
         <v>43</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -2228,7 +2276,7 @@
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>45</v>
@@ -2258,7 +2306,7 @@
         <v>28</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>19</v>
@@ -2273,20 +2321,20 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24"/>
       <c r="E24" s="4"/>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" t="s">
         <v>60</v>
-      </c>
-      <c r="H24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2340,7 +2388,7 @@
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>45</v>
@@ -2368,7 +2416,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>19</v>
@@ -2387,7 +2435,7 @@
       <c r="A34"/>
       <c r="E34" s="4"/>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
@@ -2413,7 +2461,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="E37" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>16</v>
@@ -2465,7 +2513,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44"/>
       <c r="E44" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F44" s="24" t="s">
         <v>15</v>
@@ -2495,10 +2543,10 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48"/>
       <c r="E48" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>63</v>
+        <v>51</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="H48" s="14"/>
     </row>
@@ -2526,7 +2574,7 @@
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>45</v>
@@ -2554,7 +2602,7 @@
         <v>28</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F53" s="14" t="s">
         <v>19</v>
@@ -2573,7 +2621,7 @@
       <c r="A55"/>
       <c r="E55" s="4"/>
       <c r="F55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2586,7 +2634,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" tooltip="daesang.csv" display="https://github.com/KstecGit2021/APS_alpha/blob/main/%EC%8B%9C%EA%B3%84%EC%97%B4_%EB%94%A5%EB%9F%AC%EB%8B%9D(LSTM)/daesang.csv"/>
+    <hyperlink ref="E5" r:id="rId1" tooltip="daesang.csv" display="https://github.com/KstecGit2021/APS_alpha/blob/main/%EC%8B%9C%EA%B3%84%EC%97%B4_%EB%94%A5%EB%9F%AC%EB%8B%9D(LSTM)/daesang.csv" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
